--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1676282.833835467</v>
+        <v>1660491.206154318</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584669</v>
+        <v>460545.8926584668</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075584</v>
+        <v>8768687.110075582</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D2" t="n">
         <v>190.1066023865956</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.68121295701835</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>99.52914681518099</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>51.12024601807692</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,11 +1130,11 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.0426595591497</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>33.60023339142367</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>25.20152025947094</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>5.457456980439352</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24.97975510385934</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>378.4505256934063</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
@@ -1388,7 +1388,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>169.3079848937853</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1467,7 +1467,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>22.44088855367314</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5421541965934</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>226.5674513251595</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
@@ -1625,7 +1625,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>330.1751911627121</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571424</v>
+        <v>35.8220561203464</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>226.5674513251595</v>
+        <v>152.9376416850984</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1926,13 +1926,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>87.08036771626205</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
@@ -1941,7 +1941,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>219.9881595201828</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.54254454879647</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>88.59832967195071</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>70.57145975447571</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
@@ -2144,10 +2144,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>177.0823652432665</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2166,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>104.262613881998</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.92880121529013</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>77.6171277477774</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>253.498234475708</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>204.255855370471</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>172.5161931289813</v>
+        <v>219.9881595201828</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>17.7698820617955</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>181.540574150728</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
@@ -2618,10 +2618,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>340.4422929262584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2694,10 +2694,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>154.2282790647271</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>17.76988206179558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>92.96858446131027</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>210.1560135612669</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>112.2995017920405</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2880,13 +2880,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>24.64815776426666</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571424</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>82.28018995116467</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>10.64488002485323</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>54.44663919424258</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>191.5193594599735</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>150.6655072890716</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3114,19 +3114,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.673890207337554</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>16.41927144550351</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3229,16 +3229,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R34" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>147.3472002825671</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>412.4147505536279</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>99.44473593163035</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>176.8310480250585</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>268.9755074231831</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>139.028522998474</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>12.4133056977513</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,7 +3591,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>24.64815776426666</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3676,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.1800806357979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>16.83786409935544</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>117.889549819912</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>69.02025028686683</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3825,13 +3825,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>128.807497733384</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3879,7 +3879,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>146.0025648277593</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.8378640993551</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>208.1860399441541</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>246.0367000699081</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>77.46255994262164</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4065,16 +4065,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>91.6867458199809</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,10 +4110,10 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>95.62025615464796</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>115.1165353722836</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>154.5117248826788</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
         <v>41.68395448076474</v>
@@ -4361,19 +4361,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X2" t="n">
         <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>536.8878951967741</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4410,10 +4410,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
         <v>304.2053859195205</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>878.5205767661732</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>705.1032322168421</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>705.1032322168421</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>705.1032322168421</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>705.1032322168421</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W3" t="n">
-        <v>705.1032322168421</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X3" t="n">
-        <v>705.1032322168421</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>705.1032322168421</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4525,10 +4525,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4601,16 +4601,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.84447166430675</v>
+        <v>71.67188790247008</v>
       </c>
       <c r="C6" t="n">
-        <v>69.84447166430675</v>
+        <v>71.67188790247008</v>
       </c>
       <c r="D6" t="n">
-        <v>69.84447166430675</v>
+        <v>71.67188790247008</v>
       </c>
       <c r="E6" t="n">
-        <v>69.84447166430675</v>
+        <v>71.67188790247008</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>71.67188790247008</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>71.67188790247008</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4650,16 +4650,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>277.6047704292607</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.84447166430675</v>
+        <v>71.67188790247008</v>
       </c>
     </row>
     <row r="7">
@@ -4741,28 +4741,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.6192102101089</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>223.6192102101089</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6192102101089</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>481.3994074699755</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="C9" t="n">
-        <v>306.9463781888485</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D9" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>837.4315449933492</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>635.2449503521152</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>635.2449503521152</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>635.2449503521152</v>
       </c>
       <c r="W9" t="n">
-        <v>857.3750432549973</v>
+        <v>635.2449503521152</v>
       </c>
       <c r="X9" t="n">
-        <v>857.3750432549973</v>
+        <v>635.2449503521152</v>
       </c>
       <c r="Y9" t="n">
-        <v>649.6147444900434</v>
+        <v>427.4846515871612</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2087.181164129222</v>
+        <v>2319.517746219732</v>
       </c>
       <c r="C11" t="n">
-        <v>2087.181164129222</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="D11" t="n">
-        <v>1728.915465522471</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E11" t="n">
-        <v>1343.127212924227</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F11" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5042,10 +5042,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5063,28 +5063,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>917.728611972203</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
@@ -5124,46 +5124,46 @@
         <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>645.6158192373775</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M12" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>2084.763385350902</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1501.555747962758</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1293.704247757225</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>1085.943948992271</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>412.4263787765005</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
         <v>401.7777381738809</v>
@@ -5200,7 +5200,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5218,31 +5218,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2344.749822082216</v>
+        <v>1550.266142823374</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>1181.303625882962</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>1181.303625882962</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
         <v>762.591673824455</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5300,28 +5300,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="Y14" t="n">
-        <v>2344.749822082216</v>
+        <v>1936.865982887496</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>850.313229300958</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>675.860200019831</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>526.9257903585798</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>367.6883353531243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>221.1537773800092</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>83.07889151270129</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>83.07889151270129</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5358,49 +5358,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L15" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M15" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1688.377722019714</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1434.140365291513</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1226.28886508598</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>1018.528566321026</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G16" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H16" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I16" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
@@ -5455,31 +5455,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="C17" t="n">
         <v>2115.893810642661</v>
@@ -5513,13 +5513,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376118</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D18" t="n">
-        <v>359.7197682838247</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E18" t="n">
-        <v>359.7197682838247</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F18" t="n">
         <v>359.7197682838247</v>
@@ -5592,22 +5592,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P18" t="n">
         <v>2344.749822082216</v>
@@ -5619,25 +5619,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5674,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5698,25 +5698,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U19" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V19" t="n">
-        <v>353.0840852304234</v>
+        <v>136.388258736544</v>
       </c>
       <c r="W19" t="n">
-        <v>353.0840852304234</v>
+        <v>136.388258736544</v>
       </c>
       <c r="X19" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>132.2915060868933</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1112.775552894006</v>
+        <v>377.243605767603</v>
       </c>
       <c r="C20" t="n">
-        <v>1112.775552894006</v>
+        <v>377.243605767603</v>
       </c>
       <c r="D20" t="n">
-        <v>1112.775552894006</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E20" t="n">
-        <v>1041.491250111708</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F20" t="n">
-        <v>630.5053453221001</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G20" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5777,25 +5777,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2050.393517622824</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>1796.607095507691</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V20" t="n">
-        <v>1465.54420816412</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W20" t="n">
-        <v>1112.775552894006</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X20" t="n">
-        <v>1112.775552894006</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y20" t="n">
-        <v>1112.775552894006</v>
+        <v>377.243605767603</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5832,49 +5832,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373777</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2290.276285501115</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1827.343101147238</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="C22" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="D22" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="E22" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.87624508755</v>
+        <v>284.2726982574002</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.87624508755</v>
+        <v>125.2961355808134</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T22" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U22" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V22" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="W22" t="n">
-        <v>2055.332652045256</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="X22" t="n">
-        <v>1827.343101147238</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="Y22" t="n">
-        <v>1827.343101147238</v>
+        <v>453.4106385108907</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2013.686934738646</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="C23" t="n">
-        <v>2013.686934738646</v>
+        <v>1167.173000476817</v>
       </c>
       <c r="D23" t="n">
-        <v>1757.628112035911</v>
+        <v>1167.173000476817</v>
       </c>
       <c r="E23" t="n">
-        <v>1371.839859437666</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F23" t="n">
         <v>960.8539546480588</v>
@@ -6008,31 +6008,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082217</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082217</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V23" t="n">
-        <v>2013.686934738646</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.686934738646</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="X23" t="n">
-        <v>2013.686934738646</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="Y23" t="n">
-        <v>2013.686934738646</v>
+        <v>1536.135517417229</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>676.0544483625931</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C24" t="n">
-        <v>501.6014190814661</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D24" t="n">
-        <v>352.6670094202149</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E24" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F24" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6072,19 +6072,19 @@
         <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6093,25 +6093,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U24" t="n">
-        <v>1749.271049313092</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V24" t="n">
-        <v>1514.118941081349</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W24" t="n">
-        <v>1259.881584353148</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X24" t="n">
-        <v>1052.030084147615</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y24" t="n">
-        <v>844.2697853826612</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1827.343101147238</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W25" t="n">
-        <v>2055.332652045256</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X25" t="n">
-        <v>1827.343101147238</v>
+        <v>589.8191976163148</v>
       </c>
       <c r="Y25" t="n">
-        <v>1827.343101147238</v>
+        <v>369.0266184727847</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2335778049849</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2335778049849</v>
+        <v>560.6179230915707</v>
       </c>
       <c r="D26" t="n">
-        <v>212.2335778049849</v>
+        <v>560.6179230915707</v>
       </c>
       <c r="E26" t="n">
-        <v>212.2335778049849</v>
+        <v>560.6179230915707</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2335778049849</v>
+        <v>560.6179230915707</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6266,10 +6266,10 @@
         <v>929.5804400319823</v>
       </c>
       <c r="X26" t="n">
-        <v>556.1146817709025</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2335778049849</v>
+        <v>929.5804400319823</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,49 +6306,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1520.640996459217</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>205.3275294625404</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C28" t="n">
-        <v>187.3781536425449</v>
+        <v>2175.813639154309</v>
       </c>
       <c r="D28" t="n">
-        <v>187.3781536425449</v>
+        <v>2025.696999741974</v>
       </c>
       <c r="E28" t="n">
-        <v>187.3781536425449</v>
+        <v>1877.783906159581</v>
       </c>
       <c r="F28" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G28" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H28" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L28" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M28" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N28" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O28" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y28" t="n">
-        <v>386.9759942927801</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>816.1465998380024</v>
+        <v>1131.994375306259</v>
       </c>
       <c r="C29" t="n">
-        <v>816.1465998380024</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="D29" t="n">
-        <v>457.8809012312519</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E29" t="n">
-        <v>457.8809012312519</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6491,22 +6491,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>1874.902362552185</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645668</v>
+        <v>1874.902362552185</v>
       </c>
       <c r="V29" t="n">
-        <v>1282.349095302097</v>
+        <v>1874.902362552185</v>
       </c>
       <c r="W29" t="n">
-        <v>929.5804400319828</v>
+        <v>1522.133707282071</v>
       </c>
       <c r="X29" t="n">
-        <v>816.1465998380024</v>
+        <v>1522.133707282071</v>
       </c>
       <c r="Y29" t="n">
-        <v>816.1465998380024</v>
+        <v>1131.994375306259</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>139.5078710072816</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>139.5078710072816</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
         <v>114.6107419524668</v>
@@ -6540,7 +6540,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
         <v>273.1268607498447</v>
@@ -6564,28 +6564,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>198.1305577080532</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>198.1305577080532</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>198.1305577080532</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>198.1305577080532</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>198.1305577080532</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>198.1305577080532</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>198.1305577080532</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>57.64740050715264</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
         <v>46.89499644164432</v>
@@ -6646,25 +6646,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U31" t="n">
-        <v>607.7685734363102</v>
+        <v>101.891601688354</v>
       </c>
       <c r="V31" t="n">
-        <v>607.7685734363102</v>
+        <v>101.891601688354</v>
       </c>
       <c r="W31" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X31" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C32" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D32" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E32" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F32" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G32" t="n">
         <v>46.89499644164432</v>
@@ -6740,10 +6740,10 @@
         <v>1003.953985122954</v>
       </c>
       <c r="X32" t="n">
-        <v>851.7666040228812</v>
+        <v>630.4882268618737</v>
       </c>
       <c r="Y32" t="n">
-        <v>851.7666040228812</v>
+        <v>240.348894886062</v>
       </c>
     </row>
     <row r="33">
@@ -6762,16 +6762,16 @@
         <v>298.7453260127371</v>
       </c>
       <c r="E33" t="n">
-        <v>298.7453260127371</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F33" t="n">
-        <v>298.7453260127371</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>160.6704401454292</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>53.63629968137923</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C34" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>216.0329366951349</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
         <v>46.89499644164432</v>
@@ -6877,31 +6877,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R34" t="n">
-        <v>453.4106385108907</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S34" t="n">
-        <v>453.4106385108907</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T34" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U34" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V34" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W34" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X34" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1618.515408551022</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="C35" t="n">
-        <v>1618.515408551022</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D35" t="n">
-        <v>1260.249709944272</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E35" t="n">
-        <v>874.4614573460276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F35" t="n">
-        <v>463.47555255642</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
         <v>46.89499644164432</v>
@@ -6938,10 +6938,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W35" t="n">
-        <v>1991.981166812102</v>
+        <v>1181.899867088328</v>
       </c>
       <c r="X35" t="n">
-        <v>1618.515408551022</v>
+        <v>1181.899867088328</v>
       </c>
       <c r="Y35" t="n">
-        <v>1618.515408551022</v>
+        <v>791.7605351125167</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7117,19 +7117,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>225.5122166689762</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W37" t="n">
         <v>46.89499644164432</v>
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>974.5621324127812</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="C38" t="n">
-        <v>605.5996154723696</v>
+        <v>900.847885737694</v>
       </c>
       <c r="D38" t="n">
-        <v>605.5996154723696</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E38" t="n">
-        <v>605.5996154723696</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F38" t="n">
-        <v>605.5996154723696</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G38" t="n">
-        <v>187.3278479552544</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H38" t="n">
-        <v>187.3278479552544</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7193,31 +7193,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q38" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T38" t="n">
-        <v>2124.767062713795</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U38" t="n">
-        <v>2124.767062713795</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="V38" t="n">
-        <v>2124.767062713795</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="W38" t="n">
-        <v>2124.767062713795</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="X38" t="n">
-        <v>1751.301304452715</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="Y38" t="n">
-        <v>1361.161972476903</v>
+        <v>1269.810402678106</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D39" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E39" t="n">
-        <v>139.5078710072816</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C40" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D40" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E40" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F40" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G40" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H40" t="n">
-        <v>242.8011754972942</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V40" t="n">
-        <v>353.0840852304234</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="W40" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X40" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y40" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.89499644164432</v>
+        <v>1212.631670769908</v>
       </c>
       <c r="C41" t="n">
-        <v>46.89499644164432</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D41" t="n">
-        <v>46.89499644164432</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F41" t="n">
         <v>46.89499644164432</v>
@@ -7448,13 +7448,13 @@
         <v>1282.349095302096</v>
       </c>
       <c r="W41" t="n">
-        <v>929.5804400319823</v>
+        <v>1212.631670769908</v>
       </c>
       <c r="X41" t="n">
-        <v>556.1146817709025</v>
+        <v>1212.631670769908</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.9753497950908</v>
+        <v>1212.631670769908</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>821.6754629010848</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C42" t="n">
-        <v>647.2224336199578</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D42" t="n">
-        <v>498.2880239587065</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E42" t="n">
-        <v>498.2880239587065</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F42" t="n">
-        <v>351.7534659855914</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G42" t="n">
         <v>221.6448824165167</v>
@@ -7500,40 +7500,40 @@
         <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U42" t="n">
-        <v>1894.892063851584</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V42" t="n">
-        <v>1659.739955619841</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W42" t="n">
-        <v>1405.50259889164</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X42" t="n">
-        <v>1197.651098686107</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y42" t="n">
-        <v>989.8907999211528</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C43" t="n">
         <v>46.89499644164432</v>
@@ -7588,31 +7588,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>590.7606299016081</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>590.7606299016081</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>590.7606299016081</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>590.7606299016081</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>301.5794846475312</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X43" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.89499644164432</v>
+        <v>397.479644199791</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1348.055412721158</v>
+        <v>1493.637104951312</v>
       </c>
       <c r="C44" t="n">
-        <v>979.0928957807462</v>
+        <v>1124.6745880109</v>
       </c>
       <c r="D44" t="n">
-        <v>620.8271971739957</v>
+        <v>1124.6745880109</v>
       </c>
       <c r="E44" t="n">
-        <v>620.8271971739957</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F44" t="n">
-        <v>620.8271971739957</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915536</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7670,28 +7670,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U44" t="n">
-        <v>2090.963399967084</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V44" t="n">
-        <v>2090.963399967084</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W44" t="n">
-        <v>1738.19474469697</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X44" t="n">
-        <v>1738.19474469697</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="Y44" t="n">
-        <v>1348.055412721158</v>
+        <v>1880.236945015434</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F45" t="n">
-        <v>139.5078710072816</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G45" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7758,19 +7758,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>197.0116358539801</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="C46" t="n">
-        <v>197.0116358539801</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="D46" t="n">
-        <v>46.89499644164432</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="E46" t="n">
-        <v>46.89499644164432</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="F46" t="n">
-        <v>46.89499644164432</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="G46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K46" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L46" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N46" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O46" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P46" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q46" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R46" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="T46" t="n">
-        <v>607.7685734363102</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="U46" t="n">
-        <v>451.696124059867</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="V46" t="n">
-        <v>197.0116358539801</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="W46" t="n">
-        <v>197.0116358539801</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="X46" t="n">
-        <v>197.0116358539801</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="Y46" t="n">
-        <v>197.0116358539801</v>
+        <v>1900.155573746422</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>309.749325445695</v>
       </c>
       <c r="N12" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L15" t="n">
-        <v>307.2673352605754</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>367.8729277488642</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>162.5070303356325</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>108.5094987082737</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>200.8922269696948</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>323.3866360392485</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>357.7540865596212</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>28.42552004830515</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
@@ -23337,7 +23337,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3.40051409453045</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>203.4577711487112</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>156.9044066543622</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
         <v>214.5288682289405</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>138.7054404458481</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>56.06274749334148</v>
       </c>
     </row>
     <row r="15">
@@ -23589,10 +23589,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>31.21653193536786</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23662,19 +23662,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>78.27223734092829</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23732,7 +23732,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>138.7054404458481</v>
+        <v>212.3352500859092</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -23814,13 +23814,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>60.36469784837671</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23859,13 +23859,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>5.910500182201503</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.28943563314083</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,7 +23908,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23932,13 +23932,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>137.1113257170865</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23975,19 +23975,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>311.3589103177861</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>209.1555734127871</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24054,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.910500182201282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>124.2146335995364</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>61.46119788111417</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,10 +24169,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>214.5288682289405</v>
@@ -24187,10 +24187,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,16 +24206,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>101.184807144975</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>177.6745147017908</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
@@ -24297,13 +24297,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,13 +24333,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>53.38246657340306</v>
+        <v>5.910500182201503</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>124.2146335995364</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>207.9397733272417</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>232.548475691216</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>45.79564572979518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24531,16 +24531,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24582,10 +24582,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>51.5447061387504</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>149.4769390368322</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>52.45246356162097</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
@@ -24619,7 +24619,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
         <v>152.8143555761653</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24680,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24731,22 +24731,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.626918213470589</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>257.4315988864285</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24768,13 +24768,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>81.31564129514277</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,16 +24804,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>143.6184697512197</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,10 +24856,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J31" t="n">
-        <v>44.22391161134858</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>232.0763591423484</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>191.2144822035071</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
@@ -24980,10 +24980,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>219.0655933893974</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25002,19 +25002,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>60.36469784837669</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>129.0017765774277</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
@@ -25117,16 +25117,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>78.27223734092829</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,13 +25160,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>1.674299288316035</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>249.7962327857826</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25357,22 +25357,22 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>109.4582857764776</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>24.65667255123319</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>336.8276630196617</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25479,7 +25479,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
@@ -25488,7 +25488,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25564,13 +25564,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>48.20671641402296</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372356</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>264.8442918435686</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
@@ -25688,13 +25688,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>280.2207184305462</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25713,13 +25713,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>7.8866392752509</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>105.6924183331603</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.73655303769121</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25840,10 +25840,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>10.39861340794073</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>135.8936700023537</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>336.6264898993223</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
@@ -25919,13 +25919,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25953,16 +25953,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>45.00739118865397</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,10 +25998,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>137.1803309947773</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>52.33002547867198</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26071,16 +26071,16 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>131.7776089188573</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>603601.1809634507</v>
+        <v>603601.1809634505</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>603601.1809634505</v>
+        <v>603601.1809634507</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>603601.1809634505</v>
+        <v>603601.1809634506</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>603601.1809634505</v>
+        <v>603601.1809634507</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>603601.1809634505</v>
+        <v>603601.1809634506</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>603601.1809634503</v>
+        <v>603601.1809634505</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>603601.1809634506</v>
+        <v>603601.1809634507</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>603601.1809634503</v>
+        <v>603601.1809634502</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>603601.1809634503</v>
+        <v>603601.1809634506</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>603601.1809634506</v>
+        <v>603601.1809634505</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651769</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.1061651771</v>
-      </c>
       <c r="E2" t="n">
+        <v>330470.1247052692</v>
+      </c>
+      <c r="F2" t="n">
         <v>330470.1247052693</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>330470.1247052692</v>
-      </c>
-      <c r="G2" t="n">
-        <v>330470.1247052691</v>
       </c>
       <c r="H2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="I2" t="n">
+        <v>330470.1247052695</v>
+      </c>
+      <c r="J2" t="n">
+        <v>330470.1247052691</v>
+      </c>
+      <c r="K2" t="n">
+        <v>330470.1247052694</v>
+      </c>
+      <c r="L2" t="n">
         <v>330470.1247052692</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>330470.1247052692</v>
       </c>
-      <c r="K2" t="n">
-        <v>330470.1247052692</v>
-      </c>
-      <c r="L2" t="n">
-        <v>330470.1247052693</v>
-      </c>
-      <c r="M2" t="n">
-        <v>330470.1247052693</v>
-      </c>
       <c r="N2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="O2" t="n">
         <v>330470.1247052691</v>
       </c>
       <c r="P2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052693</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007603</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285662.2308912559</v>
+        <v>287492.6387038018</v>
       </c>
       <c r="C4" t="n">
-        <v>285662.2308912559</v>
+        <v>287492.6387038018</v>
       </c>
       <c r="D4" t="n">
-        <v>285662.230891256</v>
+        <v>287492.6387038018</v>
       </c>
       <c r="E4" t="n">
-        <v>7284.960146632112</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="F4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="G4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="H4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="I4" t="n">
-        <v>7284.960146632112</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="J4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="K4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="L4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="M4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687157</v>
       </c>
       <c r="N4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="O4" t="n">
-        <v>7284.960146632111</v>
+        <v>9200.106879687153</v>
       </c>
       <c r="P4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687153</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98438.17497861182</v>
+        <v>96607.76716606587</v>
       </c>
       <c r="C6" t="n">
-        <v>179207.6065101593</v>
+        <v>177377.1986976136</v>
       </c>
       <c r="D6" t="n">
-        <v>179207.6065101594</v>
+        <v>177377.1986976134</v>
       </c>
       <c r="E6" t="n">
-        <v>-64648.90034576211</v>
+        <v>-66564.04707881721</v>
       </c>
       <c r="F6" t="n">
-        <v>280963.4424331906</v>
+        <v>279048.2957001356</v>
       </c>
       <c r="G6" t="n">
-        <v>280963.4424331905</v>
+        <v>279048.2957001355</v>
       </c>
       <c r="H6" t="n">
-        <v>280963.4424331906</v>
+        <v>279048.2957001355</v>
       </c>
       <c r="I6" t="n">
-        <v>280963.4424331905</v>
+        <v>279048.2957001358</v>
       </c>
       <c r="J6" t="n">
-        <v>217903.4998340843</v>
+        <v>215988.3531010292</v>
       </c>
       <c r="K6" t="n">
-        <v>280963.4424331906</v>
+        <v>279048.2957001356</v>
       </c>
       <c r="L6" t="n">
-        <v>280963.4424331906</v>
+        <v>279048.2957001355</v>
       </c>
       <c r="M6" t="n">
-        <v>194944.9086131146</v>
+        <v>193029.7618800595</v>
       </c>
       <c r="N6" t="n">
-        <v>280963.4424331906</v>
+        <v>279048.2957001353</v>
       </c>
       <c r="O6" t="n">
-        <v>280963.4424331904</v>
+        <v>279048.2957001353</v>
       </c>
       <c r="P6" t="n">
-        <v>280963.4424331905</v>
+        <v>279048.2957001356</v>
       </c>
     </row>
   </sheetData>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>301.9048087062787</v>
+      </c>
+      <c r="F3" t="n">
         <v>301.9048087062786</v>
       </c>
-      <c r="F3" t="n">
-        <v>301.9048087062787</v>
-      </c>
       <c r="G3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="J3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="K3" t="n">
         <v>301.9048087062787</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.6272392768849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>164.5764392340873</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27433,19 +27433,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,10 +27470,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.47662119562479</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>106.2438383882965</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>296.8154002296655</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27704,13 +27704,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>95.75810845108865</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>61.11519821841954</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8333861825618</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27944,16 +27944,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>146.4816508443669</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>246.2375261804802</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28029,13 +28029,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31756,7 +31756,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31777,22 +31777,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31847,25 +31847,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31993,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
@@ -32014,22 +32014,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I15" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32084,25 +32084,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
         <v>2.617457728311981</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L16" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R16" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T16" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32251,22 +32251,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32321,25 +32321,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L19" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T19" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32488,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32558,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32704,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
@@ -32725,22 +32725,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P23" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I24" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32795,25 +32795,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N24" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P24" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S24" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T24" t="n">
         <v>2.617457728311981</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H25" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L25" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N25" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T25" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J26" t="n">
         <v>103.0102241525006</v>
@@ -32962,22 +32962,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P26" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q26" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S26" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H27" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I27" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J27" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K27" t="n">
         <v>104.8606541711232</v>
@@ -33032,25 +33032,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M27" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N27" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O27" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P27" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R27" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S27" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T27" t="n">
         <v>2.617457728311981</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H28" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I28" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J28" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L28" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N28" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R28" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T28" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35422,13 +35422,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685986</v>
       </c>
       <c r="N12" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35583,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
         <v>432.2802359107712</v>
@@ -35659,13 +35659,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L15" t="n">
-        <v>309.7110456222514</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35738,13 +35738,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35820,7 +35820,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35896,13 +35896,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35975,10 +35975,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36057,7 +36057,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36133,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093429</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36212,13 +36212,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36294,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M23" t="n">
         <v>432.2802359107712</v>
@@ -36370,13 +36370,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
-        <v>370.3166381105403</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
@@ -36449,13 +36449,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>308.4914891638518</v>
+        <v>152.5357508595472</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M25" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N25" t="n">
         <v>127.4430518046842</v>
@@ -36531,7 +36531,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K26" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L26" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M26" t="n">
         <v>432.2802359107712</v>
@@ -36607,13 +36607,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P26" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q26" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>75.52871390503797</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36686,13 +36686,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L28" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M28" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N28" t="n">
         <v>127.4430518046842</v>
@@ -36768,7 +36768,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>167.911442166459</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093429</v>
@@ -37391,7 +37391,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M36" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N36" t="n">
         <v>516.8936174628016</v>
@@ -37400,10 +37400,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P36" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M39" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
         <v>516.8936174628016</v>
@@ -37640,7 +37640,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37868,16 +37868,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>360.9378791584966</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38108,13 +38108,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
